--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Travers.Spring.022120-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Travers.Spring.022120-1.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1063,12 +1063,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1609,12 +1609,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2201,12 +2201,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2751,12 +2751,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3003,12 +3003,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3129,12 +3129,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3507,12 +3507,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3927,12 +3927,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3969,12 +3969,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4221,12 +4221,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4305,12 +4305,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4389,12 +4389,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5061,12 +5061,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6367,12 +6367,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6409,12 +6409,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6619,12 +6619,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6703,12 +6703,12 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6871,12 +6871,12 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7165,12 +7165,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7375,12 +7375,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8677,12 +8677,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8761,12 +8761,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9017,12 +9017,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9437,12 +9437,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9563,12 +9563,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11751,12 +11751,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11919,12 +11919,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11961,12 +11961,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12591,12 +12591,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14485,12 +14485,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14741,12 +14741,12 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16337,12 +16337,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16631,12 +16631,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16715,12 +16715,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16841,12 +16841,12 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17475,12 +17475,12 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17643,12 +17643,12 @@
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17685,12 +17685,12 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18063,12 +18063,12 @@
       <c r="H419" t="inlineStr"/>
       <c r="I419" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18147,12 +18147,12 @@
       <c r="H421" t="inlineStr"/>
       <c r="I421" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18487,12 +18487,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19201,12 +19201,12 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19411,12 +19411,12 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19621,12 +19621,12 @@
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19873,12 +19873,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20087,12 +20087,12 @@
       <c r="H467" t="inlineStr"/>
       <c r="I467" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20255,12 +20255,12 @@
       <c r="H471" t="inlineStr"/>
       <c r="I471" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20297,12 +20297,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20801,12 +20801,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21095,12 +21095,12 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21431,12 +21431,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21851,12 +21851,12 @@
       <c r="H509" t="inlineStr"/>
       <c r="I509" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21935,12 +21935,12 @@
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22313,12 +22313,12 @@
       <c r="H520" t="inlineStr"/>
       <c r="I520" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22355,12 +22355,12 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23027,12 +23027,12 @@
       <c r="H537" t="inlineStr"/>
       <c r="I537" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23069,12 +23069,12 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23321,12 +23321,12 @@
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23657,12 +23657,12 @@
       <c r="H552" t="inlineStr"/>
       <c r="I552" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24077,12 +24077,12 @@
       <c r="H562" t="inlineStr"/>
       <c r="I562" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24627,12 +24627,12 @@
       <c r="H575" t="inlineStr"/>
       <c r="I575" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24837,12 +24837,12 @@
       <c r="H580" t="inlineStr"/>
       <c r="I580" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24879,12 +24879,12 @@
       <c r="H581" t="inlineStr"/>
       <c r="I581" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24921,12 +24921,12 @@
       <c r="H582" t="inlineStr"/>
       <c r="I582" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25131,12 +25131,12 @@
       <c r="H587" t="inlineStr"/>
       <c r="I587" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25513,12 +25513,12 @@
       <c r="H596" t="inlineStr"/>
       <c r="I596" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25681,12 +25681,12 @@
       <c r="H600" t="inlineStr"/>
       <c r="I600" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26143,12 +26143,12 @@
       <c r="H611" t="inlineStr"/>
       <c r="I611" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26185,12 +26185,12 @@
       <c r="H612" t="inlineStr"/>
       <c r="I612" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26269,12 +26269,12 @@
       <c r="H614" t="inlineStr"/>
       <c r="I614" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26479,12 +26479,12 @@
       <c r="H619" t="inlineStr"/>
       <c r="I619" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26983,12 +26983,12 @@
       <c r="H631" t="inlineStr"/>
       <c r="I631" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27025,12 +27025,12 @@
       <c r="H632" t="inlineStr"/>
       <c r="I632" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27827,12 +27827,12 @@
       <c r="H651" t="inlineStr"/>
       <c r="I651" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28793,12 +28793,12 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29087,12 +29087,12 @@
       <c r="H681" t="inlineStr"/>
       <c r="I681" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29801,12 +29801,12 @@
       <c r="H698" t="inlineStr"/>
       <c r="I698" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30053,12 +30053,12 @@
       <c r="H704" t="inlineStr"/>
       <c r="I704" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31145,12 +31145,12 @@
       <c r="H730" t="inlineStr"/>
       <c r="I730" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31523,12 +31523,12 @@
       <c r="H739" t="inlineStr"/>
       <c r="I739" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31607,12 +31607,12 @@
       <c r="H741" t="inlineStr"/>
       <c r="I741" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J741" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31901,12 +31901,12 @@
       <c r="H748" t="inlineStr"/>
       <c r="I748" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J748" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31943,12 +31943,12 @@
       <c r="H749" t="inlineStr"/>
       <c r="I749" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32069,12 +32069,12 @@
       <c r="H752" t="inlineStr"/>
       <c r="I752" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J752" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32195,12 +32195,12 @@
       <c r="H755" t="inlineStr"/>
       <c r="I755" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J755" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32321,12 +32321,12 @@
       <c r="H758" t="inlineStr"/>
       <c r="I758" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J758" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32447,12 +32447,12 @@
       <c r="H761" t="inlineStr"/>
       <c r="I761" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J761" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32573,12 +32573,12 @@
       <c r="H764" t="inlineStr"/>
       <c r="I764" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33287,12 +33287,12 @@
       <c r="H781" t="inlineStr"/>
       <c r="I781" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33329,12 +33329,12 @@
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33455,12 +33455,12 @@
       <c r="H785" t="inlineStr"/>
       <c r="I785" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J785" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33959,12 +33959,12 @@
       <c r="H797" t="inlineStr"/>
       <c r="I797" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J797" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34043,12 +34043,12 @@
       <c r="H799" t="inlineStr"/>
       <c r="I799" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J799" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
